--- a/APM files/130542703/130542703 IMPORT 1 PS&NS - deactivation.xlsx
+++ b/APM files/130542703/130542703 IMPORT 1 PS&NS - deactivation.xlsx
@@ -1,37 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/130542703/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2A4855-BE8F-3E46-B476-E6ED3DA54093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="7860" yWindow="5660" windowWidth="14400" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="10">
+  <si>
+    <t>Action Type</t>
+  </si>
+  <si>
+    <t>SF ID</t>
+  </si>
+  <si>
+    <t>Hotel ID</t>
+  </si>
+  <si>
+    <t>Stop Sell Property</t>
+  </si>
+  <si>
+    <t>Stop Sell Reason</t>
+  </si>
+  <si>
+    <t>Projected Stop Sell End Date</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Direct Contract to be deactivated</t>
+  </si>
+  <si>
+    <t>06/06/2079</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +94,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,73 +419,796 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Action Type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>SF ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Stop Sell Property</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Stop Sell Reason</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Projected Stop Sell End Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Direct Contract to be deactivated</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>06/06/2079</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C2">
+        <v>103981875</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C3">
+        <v>104257894</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C4">
+        <v>103981871</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C5">
+        <v>103981879</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C6">
+        <v>103981877</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C7">
+        <v>104257884</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C8">
+        <v>104257890</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C9">
+        <v>104257895</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C10">
+        <v>103872283</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C11">
+        <v>103872279</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C12">
+        <v>103872282</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C13">
+        <v>103872281</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C14">
+        <v>103872284</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C15">
+        <v>103945119</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C16">
+        <v>103981873</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C17">
+        <v>103872278</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C18">
+        <v>103872280</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C19">
+        <v>103872277</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C20">
+        <v>103945115</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C21">
+        <v>104348625</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C22">
+        <v>104257903</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C23">
+        <v>104043751</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C24">
+        <v>103872271</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C25">
+        <v>103872275</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C26">
+        <v>103872274</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C27">
+        <v>103945118</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C28">
+        <v>104348627</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C29">
+        <v>103872272</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C30">
+        <v>103945117</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C31">
+        <v>104257904</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C32">
+        <v>104257906</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C33">
+        <v>104004119</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C34">
+        <v>103872269</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C35">
+        <v>104257905</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C36">
+        <v>104257899</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C37">
+        <v>104257897</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C38">
+        <v>103872270</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="2">
+        <v>130542703</v>
+      </c>
+      <c r="C39">
+        <v>103872273</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
